--- a/bas/rooster.xlsx
+++ b/bas/rooster.xlsx
@@ -19,424 +19,424 @@
     <t>maandag</t>
   </si>
   <si>
+    <t>17.00-19.00</t>
+  </si>
+  <si>
+    <t>Lokaal: A1.10</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_3_Moderne_Databases.</t>
+  </si>
+  <si>
+    <t>Lokaal: A1.08</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Data_Mining.</t>
+  </si>
+  <si>
+    <t>Lokaal: B0.201</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Compilerbouw.</t>
+  </si>
+  <si>
+    <t>Lokaal: C1.112</t>
+  </si>
+  <si>
+    <t>Vak: hc_2_1_Interactie_ontwerp.</t>
+  </si>
+  <si>
     <t>9.00-11.00</t>
   </si>
   <si>
-    <t>Lokaal: B0.201</t>
+    <t>Vak: wc_1_2_Software_engineering.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_3_Calculus_2.</t>
+  </si>
+  <si>
+    <t>Lokaal: C0.110</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Databases_2.</t>
+  </si>
+  <si>
+    <t>Vak: hc_2_1_Data_Mining.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Software_engineering.</t>
+  </si>
+  <si>
+    <t>Lokaal: A1.04</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_3_Data_Mining.</t>
+  </si>
+  <si>
+    <t>13.00-15.00</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Reflectie_op_de_digitale_cultuur.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Autonomous_Agents_2.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Informatie_en_organisatieontwerp.</t>
+  </si>
+  <si>
+    <t>15.00-17.00</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Analysemethoden_en_technieken.</t>
+  </si>
+  <si>
+    <t>Vak: hc_2_1_Reflectie_op_de_digitale_cultuur.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Calculus_2.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Reflectie_op_de_digitale_cultuur.</t>
+  </si>
+  <si>
+    <t>Lokaal: A1.06</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Data_Mining.</t>
+  </si>
+  <si>
+    <t>11.00-13.00</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Project_Genetic_Algorithms.</t>
+  </si>
+  <si>
+    <t>Vak: hc_2_1_Kansrekenen_2.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Moderne_Databases.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Webprogrammeren_en_databases.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Compilerbouw.</t>
+  </si>
+  <si>
+    <t>dinsdag</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Reflectie_op_de_digitale_cultuur.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Data_Mining.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Architectuur_en_computerorganisatie.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Data_Mining.</t>
+  </si>
+  <si>
+    <t>Vak: hc_3_1_Collectieve_Intelligentie.</t>
+  </si>
+  <si>
+    <t>Vak: hc_2_1_Machine_Learning.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Autonomous_Agents_2.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Webprogrammeren_en_databases.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Moderne_Databases.</t>
+  </si>
+  <si>
+    <t>Vak: hc_2_1_Bioinformatica.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Autonomous_Agents_2.</t>
   </si>
   <si>
     <t>Vak: pr_1_2_Software_engineering.</t>
   </si>
   <si>
-    <t>Lokaal: C0.110</t>
-  </si>
-  <si>
     <t>Vak: wc_1_2_Collectieve_Intelligentie.</t>
   </si>
   <si>
-    <t>Lokaal: A1.04</t>
+    <t>Vak: hc_1_1_Heuristieken_2.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Autonomous_Agents_2.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Advanced_Heuristics.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Netwerken_en_systeembeveiliging.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_3_Project_Genetic_Algorithms.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Netwerken_en_systeembeveiliging.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_3_Compilerbouw_practicum.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Calculus_2.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_3_Collectieve_Intelligentie.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Technology_for_games.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Compilerbouw.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Algoritmen_en_complexiteit.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Heuristieken_2.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Bioinformatica.</t>
+  </si>
+  <si>
+    <t>woensdag</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Advanced_Heuristics.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_5_Programmeren_in_Java_2.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Bioinformatica.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Heuristieken_2.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Informatie_en_organisatieontwerp.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Collectieve_Intelligentie.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Project_Genetic_Algorithms.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Algoritmen_en_complexiteit.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Bioinformatica.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Technology_for_games.</t>
   </si>
   <si>
     <t>Vak: hc_1_1_Machine_Learning.</t>
   </si>
   <si>
-    <t>Lokaal: A1.06</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Netwerken_en_systeembeveiliging.</t>
-  </si>
-  <si>
-    <t>17.00-19.00</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_3_Compilerbouw_practicum.</t>
+    <t>Vak: hc_2_1_Compilerbouw.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Interactie_ontwerp.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Moderne_Databases.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Heuristieken_1.</t>
+  </si>
+  <si>
+    <t>Vak: hc_2_1_Webprogrammeren_en_databases.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_3_Bioinformatica.</t>
+  </si>
+  <si>
+    <t>Vak: hc_2_1_Lineaire_Algebra.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_3_Programmeren_in_Java_2.</t>
+  </si>
+  <si>
+    <t>Vak: hc_2_1_Collectieve_Intelligentie.</t>
+  </si>
+  <si>
+    <t>Vak: hc_2_1_Architectuur_en_computerorganisatie.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Algoritmen_en_complexiteit.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Compilerbouw_practicum.</t>
+  </si>
+  <si>
+    <t>donderdag</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_3_Project_Numerical_Recipes.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Algoritmen_en_complexiteit.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Informatie_en_organisatieontwerp.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Programmeren_in_Java_2.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Algoritmen_en_complexiteit.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Informatie_en_organisatieontwerp.</t>
+  </si>
+  <si>
+    <t>Vak: hc_3_1_Bioinformatica.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Bioinformatica.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Webprogrammeren_en_databases.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Collectieve_Intelligentie.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_3_Collectieve_Intelligentie.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_3_Bioinformatica.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Moderne_Databases.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_6_Programmeren_in_Java_2.</t>
   </si>
   <si>
     <t>Vak: hc_1_1_Technology_for_games.</t>
   </si>
   <si>
-    <t>Vak: pr_1_3_Collectieve_Intelligentie.</t>
-  </si>
-  <si>
-    <t>Lokaal: C1.112</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Algoritmen_en_complexiteit.</t>
-  </si>
-  <si>
-    <t>15.00-17.00</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Autonomous_Agents_2.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Bioinformatica.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Informatie_en_organisatieontwerp.</t>
-  </si>
-  <si>
-    <t>Vak: hc_3_1_Collectieve_Intelligentie.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Webprogrammeren_en_databases.</t>
-  </si>
-  <si>
-    <t>Lokaal: A1.10</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Bioinformatica.</t>
-  </si>
-  <si>
-    <t>13.00-15.00</t>
+    <t>Vak: pr_1_3_Data_Mining.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Zoeken_sturen_en_bewegen.</t>
+  </si>
+  <si>
+    <t>Vak: hc_2_1_Technology_for_games.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Software_engineering.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Compilerbouw.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Zoeken_sturen_en_bewegen.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Informatie_en_organisatieontwerp.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Project_Numerical_Recipes.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Databases_2.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Heuristieken_1.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Collectieve_Intelligentie.</t>
+  </si>
+  <si>
+    <t>vrijdag</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Data_Mining.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_3_Reflectie_op_de_digitale_cultuur.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Webprogrammeren_en_databases.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Calculus_2.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Collectieve_Intelligentie.</t>
   </si>
   <si>
     <t>Vak: wc_1_2_Heuristieken_1.</t>
   </si>
   <si>
-    <t>Lokaal: A1.08</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_3_Bioinformatica.</t>
+    <t>Vak: pr_1_1_Compilerbouw_practicum.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Lineaire_Algebra.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_3_Moderne_Databases.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Webprogrammeren_en_databases.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_4_Programmeren_in_Java_2.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_1_Software_engineering.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Autonomous_Agents_2.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Compilerbouw.</t>
+  </si>
+  <si>
+    <t>Vak: hc_2_1_Informatie_en_organisatieontwerp.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Bioinformatica.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_3_Zoeken_sturen_en_bewegen.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Programmeren_in_Java_2.</t>
+  </si>
+  <si>
+    <t>Vak: hc_1_1_Kansrekenen_2.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Moderne_Databases.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_1_Advanced_Heuristics.</t>
+  </si>
+  <si>
+    <t>Vak: wc_1_2_Databases_2.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_3_Netwerken_en_systeembeveiliging.</t>
+  </si>
+  <si>
+    <t>Vak: pr_1_2_Project_Numerical_Recipes.</t>
   </si>
   <si>
     <t>Vak: hc_2_1_Autonomous_Agents_2.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Reflectie_op_de_digitale_cultuur.</t>
-  </si>
-  <si>
-    <t>11.00-13.00</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_3_Bioinformatica.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Analysemethoden_en_technieken.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Collectieve_Intelligentie.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Webprogrammeren_en_databases.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_3_Project_Numerical_Recipes.</t>
-  </si>
-  <si>
-    <t>dinsdag</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Machine_Learning.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Moderne_Databases.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Reflectie_op_de_digitale_cultuur.</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Architectuur_en_computerorganisatie.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Programmeren_in_Java_2.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Autonomous_Agents_2.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Data_Mining.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Heuristieken_2.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Compilerbouw.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Interactie_ontwerp.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Moderne_Databases.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Heuristieken_2.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Data_Mining.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Compilerbouw.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_3_Collectieve_Intelligentie.</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Webprogrammeren_en_databases.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_3_Zoeken_sturen_en_bewegen.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Informatie_en_organisatieontwerp.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Bioinformatica.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_3_Calculus_2.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Compilerbouw_practicum.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Compilerbouw.</t>
-  </si>
-  <si>
-    <t>woensdag</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Zoeken_sturen_en_bewegen.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Architectuur_en_computerorganisatie.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Software_engineering.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Netwerken_en_systeembeveiliging.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Collectieve_Intelligentie.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Calculus_2.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Webprogrammeren_en_databases.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Programmeren_in_Java_2.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Software_engineering.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_3_Netwerken_en_systeembeveiliging.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Autonomous_Agents_2.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Informatie_en_organisatieontwerp.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Software_engineering.</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Compilerbouw.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Moderne_Databases.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Technology_for_games.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Moderne_Databases.</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Technology_for_games.</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Bioinformatica.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Advanced_Heuristics.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Technology_for_games.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Autonomous_Agents_2.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Moderne_Databases.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Project_Genetic_Algorithms.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Compilerbouw_practicum.</t>
-  </si>
-  <si>
-    <t>donderdag</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Collectieve_Intelligentie.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Project_Numerical_Recipes.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Compilerbouw.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_3_Moderne_Databases.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Data_Mining.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Informatie_en_organisatieontwerp.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_4_Programmeren_in_Java_2.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_3_Data_Mining.</t>
-  </si>
-  <si>
-    <t>Vak: hc_3_1_Bioinformatica.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Databases_2.</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Informatie_en_organisatieontwerp.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Calculus_2.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Heuristieken_2.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Kansrekenen_2.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Data_Mining.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_5_Programmeren_in_Java_2.</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Interactie_ontwerp.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Algoritmen_en_complexiteit.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Bioinformatica.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_3_Reflectie_op_de_digitale_cultuur.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Informatie_en_organisatieontwerp.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Autonomous_Agents_2.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Webprogrammeren_en_databases.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Algoritmen_en_complexiteit.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_3_Data_Mining.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Data_Mining.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Bioinformatica.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Collectieve_Intelligentie.</t>
-  </si>
-  <si>
-    <t>vrijdag</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Compilerbouw.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Lineaire_Algebra.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Software_engineering.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Project_Genetic_Algorithms.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_3_Programmeren_in_Java_2.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Heuristieken_1.</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Lineaire_Algebra.</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Collectieve_Intelligentie.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Databases_2.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Algoritmen_en_complexiteit.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Algoritmen_en_complexiteit.</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Kansrekenen_2.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Advanced_Heuristics.</t>
-  </si>
-  <si>
-    <t>Vak: hc_1_1_Advanced_Heuristics.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_2_Project_Numerical_Recipes.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Calculus_2.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_3_Moderne_Databases.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_3_Project_Genetic_Algorithms.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Webprogrammeren_en_databases.</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Data_Mining.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_1_Zoeken_sturen_en_bewegen.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Reflectie_op_de_digitale_cultuur.</t>
-  </si>
-  <si>
-    <t>Vak: hc_2_1_Reflectie_op_de_digitale_cultuur.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_2_Databases_2.</t>
-  </si>
-  <si>
-    <t>Vak: pr_1_6_Programmeren_in_Java_2.</t>
-  </si>
-  <si>
-    <t>Vak: wc_1_1_Heuristieken_1.</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,13 +782,13 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -814,19 +814,19 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -861,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -908,28 +908,28 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -943,40 +943,40 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M5" t="s">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -990,40 +990,40 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1037,40 +1037,40 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1078,16 +1078,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
@@ -1096,28 +1096,28 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
         <v>6</v>
       </c>
-      <c r="L8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
       <c r="O8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1125,16 +1125,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
@@ -1143,418 +1143,418 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s">
         <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
         <v>2</v>
       </c>
-      <c r="L11" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
         <v>8</v>
       </c>
-      <c r="I12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
       <c r="L12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
         <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" t="s">
-        <v>6</v>
-      </c>
       <c r="L14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N14" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="O14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N15" t="s">
         <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
         <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
         <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -1563,78 +1563,78 @@
         <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="L19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1642,46 +1642,46 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1689,46 +1689,46 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
         <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1742,40 +1742,40 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
         <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M22" t="s">
         <v>30</v>
       </c>
       <c r="N22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1789,10 +1789,10 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
         <v>58</v>
@@ -1801,28 +1801,28 @@
         <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M23" t="s">
         <v>30</v>
       </c>
       <c r="N23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1830,11 +1830,20 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
       <c r="G24" t="s">
         <v>30</v>
       </c>
@@ -1842,45 +1851,45 @@
         <v>8</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s">
         <v>30</v>
       </c>
       <c r="K24" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M24" t="s">
         <v>30</v>
       </c>
       <c r="N24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
         <v>6</v>
       </c>
-      <c r="O24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" t="s">
-        <v>26</v>
-      </c>
       <c r="L25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M25" t="s">
         <v>30</v>
@@ -1889,39 +1898,48 @@
         <v>8</v>
       </c>
       <c r="O25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>84</v>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
       </c>
       <c r="J26" t="s">
         <v>30</v>
       </c>
       <c r="K26" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M26" t="s">
         <v>30</v>
       </c>
       <c r="N26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:15">
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
       <c r="J27" t="s">
         <v>30</v>
       </c>
@@ -1929,38 +1947,18 @@
         <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>111</v>
-      </c>
-      <c r="M27" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="J28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="J29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" t="s">
-        <v>113</v>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
